--- a/medicine/Handicap/Une_vie_démente/Une_vie_démente.xlsx
+++ b/medicine/Handicap/Une_vie_démente/Une_vie_démente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Une_vie_d%C3%A9mente</t>
+          <t>Une_vie_démente</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une vie démente est une comédie dramatique belge coécrite et réalisée par Ann Sirot et Raphaël Balboni, sortie en 2020.
-Il s'agit de leur premier film. Il met en scène Jo Deseure, Jean Le Peltier et Lucie Debay[1]. Il est sélectionné et présenté pour la première fois au Festival de Namur en octobre 2020, où il reçoit un excellent accueil critique[2]. Il est ensuite présenté dans de nombreux autres festivals. 
-Le film a récolté un record de douze nominations lorsque de la 11e cérémonie des Magritte du cinéma[3], et est reparti avec 7 récompenses, incluant celle du meilleur film, de la meilleure actrice et du meilleur acteur[4].
+Il s'agit de leur premier film. Il met en scène Jo Deseure, Jean Le Peltier et Lucie Debay. Il est sélectionné et présenté pour la première fois au Festival de Namur en octobre 2020, où il reçoit un excellent accueil critique. Il est ensuite présenté dans de nombreux autres festivals. 
+Le film a récolté un record de douze nominations lorsque de la 11e cérémonie des Magritte du cinéma, et est reparti avec 7 récompenses, incluant celle du meilleur film, de la meilleure actrice et du meilleur acteur.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Une_vie_d%C3%A9mente</t>
+          <t>Une_vie_démente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alex et Noémie, la trentaine, voudraient avoir un enfant. Leurs plans sont chamboulés car la mère d'Alex, Suzanne, agit de manière de plus en plus farfelue. Atteinte de démence dégénérative, elle ne peut désormais plus se gérer seule. La vie devient de plus en plus difficile pour le couple, qui va devoir apprendre à trouver un nouvel équilibre dans sa vie. Entre l’enfant désiré et l’enfant que Suzanne redevient, tout s’emmêle. C’est l’histoire d’un rodéo, la traversée agitée d’un couple qui découvre la parentalité à l’envers.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Une_vie_d%C3%A9mente</t>
+          <t>Une_vie_démente</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Une vie démente
 Titre international : Madly in life
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Une_vie_d%C3%A9mente</t>
+          <t>Une_vie_démente</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jo Deseure : Suzanne, la mère
 Jean Le Peltier : Alex, le fils
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Une_vie_d%C3%A9mente</t>
+          <t>Une_vie_démente</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,10 +644,12 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une vie démente reçoit un accueil globalement positif de la part de la critique et du public. Sur le site français Allociné, le film obtient un résultat de 3,5/5 de moyenne de la part des critiques presses recensées, et 4/5 de la part des spectateurs[2]. 
-Le critique de cinéma belge Hugues Dayez commente le film pour la RTBF, « Il y a trois personnages principaux et peu de décors dans Une vie démente. Rien de spectaculaire donc, mais une justesse d'écriture, qui parvient à montrer le tragicomique de la situation : Suzanne est malade, certes, mais elle est tellement désinhibée qu’elle provoque parfois des situations très pittoresques, à la grande honte de son fils. Dans ce rôle casse-gueule, l’actrice de théâtre Jo Deseure fait des étincelles. Et pour incarner le jeune couple désemparé, Jean Le Peltier et Lucie Debay sont formidablement crédibles. Entre rire et émotion, Une vie démente est une surprise très enthousiasmante »[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une vie démente reçoit un accueil globalement positif de la part de la critique et du public. Sur le site français Allociné, le film obtient un résultat de 3,5/5 de moyenne de la part des critiques presses recensées, et 4/5 de la part des spectateurs. 
+Le critique de cinéma belge Hugues Dayez commente le film pour la RTBF, « Il y a trois personnages principaux et peu de décors dans Une vie démente. Rien de spectaculaire donc, mais une justesse d'écriture, qui parvient à montrer le tragicomique de la situation : Suzanne est malade, certes, mais elle est tellement désinhibée qu’elle provoque parfois des situations très pittoresques, à la grande honte de son fils. Dans ce rôle casse-gueule, l’actrice de théâtre Jo Deseure fait des étincelles. Et pour incarner le jeune couple désemparé, Jean Le Peltier et Lucie Debay sont formidablement crédibles. Entre rire et émotion, Une vie démente est une surprise très enthousiasmante ».
 </t>
         </is>
       </c>
@@ -640,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Une_vie_d%C3%A9mente</t>
+          <t>Une_vie_démente</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,7 +678,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Magritte 2022 :
 Meilleur film
@@ -671,9 +693,43 @@
 Chistera 2021 :
 Meilleure réalisation : Ann Sirot et Raphaël Balboni
 Meilleure actrice : Jo Deseure
-Prix du Jury des Jeunes
-Nominations
-Chistera 2021 : Meilleur film
+Prix du Jury des Jeunes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Une_vie_démente</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Une_vie_d%C3%A9mente</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chistera 2021 : Meilleur film
 Magritte 2022 :
 Meilleur premier film
 Meilleure réalisation : Ann Sirot et Raphaël Balboni
